--- a/biology/Botanique/Agrostophyllum/Agrostophyllum.xlsx
+++ b/biology/Botanique/Agrostophyllum/Agrostophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrostophyllum est un genre d'orchidées épiphytes de la zone indo-pacifique comptant une centaine d'espèces. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'Agrostophyllum a été créé à partir du grec "agrostis" = "herbe" et "phyllos" = "herbe", par référence aux feuilles en forme d'herbe.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidées épiphytes.
 Tiges à feuilles dense.
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts tropicales de basse altitude (pour la plupart des espèces), d'Asie du Sud-Est depuis Madagascar, les Seychelles, l'Inde, la Malaisie, l'Indonésie et les îles du Pacifiques. La moitié des espèces du genre sont originaires de Nouvelle-Guinée.
 </t>
@@ -606,7 +624,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces sont en danger d'extinction, voire déjà disparues, du fait de la déforestation.
 </t>
@@ -637,7 +657,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Agrostophyllum acutum (Nouvelle-Guinée).
 Agrostophyllum amboinense (Iles Moluques).
@@ -646,16 +668,16 @@
 Agrostophyllum arundinaceum (Borneo).
 Agrostophyllum atrovirens (Iles Moluques).
 Agrostophyllum bilobolabellatum (Nouvelle-Guinée).
-Agrostophyllum bimaculatum (Nouvelle-Guinée))[1].
-Agrostophyllum brachiatum (Nouvelle-Guinée).))[2].
+Agrostophyllum bimaculatum (Nouvelle-Guinée)).
+Agrostophyllum brachiatum (Nouvelle-Guinée).)).
 Agrostophyllum brachiatum var. brachiatum (Nouvelle-Guinée).
 Agrostophyllum brachiatum var. latibrachiatum (Nouvelle-Guinée).
 Agrostophyllum brevipes (E. Himalaya - Indochine).
-Agrostophyllum callosum (Nepal - Hainan)[3].
+Agrostophyllum callosum (Nepal - Hainan).
 Agrostophyllum compressum (Nouvelle-Guinée).
 Agrostophyllum crassicaule (Nouvelle-Guinée, Archipel Bismarck).
 Agrostophyllum curvilabre (Nouvelle-Guinée - Iles Salomon).
-Agrostophyllum cyathiforme (Malaisie).)[4].
+Agrostophyllum cyathiforme (Malaisie).).
 Agrostophyllum cycloglossum (Nouvelle-Guinée).
 Agrostophyllum cyclopense (Nouvelle-Guinée).
 Agrostophyllum denbergeri (Sumatra - Java).
